--- a/biology/Zoologie/Eukoenenia_hanseni/Eukoenenia_hanseni.xlsx
+++ b/biology/Zoologie/Eukoenenia_hanseni/Eukoenenia_hanseni.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eukoenenia hanseni est une espèce de palpigrades de la famille des Eukoeneniidae.
 </t>
@@ -511,10 +523,12 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique du Mexique[1],[2].
-Les spécimens observés aux Bermudes, au Maroc, en Égypte, à La Réunion, à l'île Maurice et à Madagascar sont des Eukoenenia florenciae pour Bruno Condé[3],[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique du Mexique,.
+Les spécimens observés aux Bermudes, au Maroc, en Égypte, à La Réunion, à l'île Maurice et à Madagascar sont des Eukoenenia florenciae pour Bruno Condé,.
 </t>
         </is>
       </c>
@@ -543,10 +557,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le mâle holotype mesure 1,15 mm[5].
-Les mâles mesurent de 1,12 à 1,30 mm et les femelles de 1,34 à 1,59 mm[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mâle holotype mesure 1,15 mm.
+Les mâles mesurent de 1,12 à 1,30 mm et les femelles de 1,34 à 1,59 mm.
 </t>
         </is>
       </c>
@@ -575,9 +591,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Hans Jacob Hansen[5].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Hans Jacob Hansen.
 </t>
         </is>
       </c>
@@ -606,7 +624,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Silvestri, 1913 : Novi generi e specie di Koeneniidae (Arachnida, Palpigradi). Bollettino del Laboratorio di Zoologia Generale e Agraria della R. Scuola Superiore d'Agricoltura, Portici, vol. 7, p. 211-217 (texte intégral).</t>
         </is>
